--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
+++ b/StructureDefinition-rs-observation-timeline-time-station-arrival.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
